--- a/data/full_data/euro-ccp.xlsx
+++ b/data/full_data/euro-ccp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>CCP</t>
   </si>
@@ -26,9 +26,6 @@
     <t>clearning service</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>4.1.1</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>aggregated</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
   <si>
     <t>Q3-2016</t>
@@ -492,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +494,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,88 +579,85 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
+      <c r="E2" t="n">
+        <v>3846685</v>
       </c>
       <c r="F2" t="n">
-        <v>3846685</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>242942916</v>
       </c>
       <c r="I2" t="n">
+        <v>287184772.92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>242942916</v>
-      </c>
-      <c r="J2" t="n">
-        <v>287184772.92</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>242942916</v>
       </c>
       <c r="N2" t="n">
-        <v>242942916</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>235220891</v>
       </c>
       <c r="P2" t="n">
-        <v>235220891</v>
+        <v>30313530</v>
       </c>
       <c r="Q2" t="n">
-        <v>30313530</v>
+        <v>236487798</v>
       </c>
       <c r="R2" t="n">
-        <v>236487798</v>
+        <v>1043910600</v>
       </c>
       <c r="S2" t="n">
-        <v>1043910600</v>
+        <v>1836192948</v>
       </c>
       <c r="T2" t="n">
-        <v>1836192948</v>
+        <v>1778760605</v>
       </c>
       <c r="U2" t="n">
-        <v>1778760605</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -677,180 +668,174 @@
       <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3846685</v>
       </c>
       <c r="F3" t="n">
-        <v>3846685</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>242942916</v>
       </c>
       <c r="I3" t="n">
+        <v>285194422.5499999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>242942916</v>
-      </c>
-      <c r="J3" t="n">
-        <v>285194422.5499999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>242942916</v>
       </c>
       <c r="N3" t="n">
-        <v>242942916</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>235220891</v>
       </c>
       <c r="P3" t="n">
-        <v>235220891</v>
+        <v>14954318</v>
       </c>
       <c r="Q3" t="n">
-        <v>14954318</v>
+        <v>131800590</v>
       </c>
       <c r="R3" t="n">
-        <v>131800590</v>
+        <v>673856397</v>
       </c>
       <c r="S3" t="n">
-        <v>673856397</v>
+        <v>1067298594</v>
       </c>
       <c r="T3" t="n">
-        <v>1067298594</v>
+        <v>1038666375</v>
       </c>
       <c r="U3" t="n">
-        <v>1038666375</v>
+        <v>21</v>
       </c>
       <c r="V3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
+      <c r="E4" t="n">
+        <v>3846685</v>
       </c>
       <c r="F4" t="n">
-        <v>3846685</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>242528553</v>
       </c>
       <c r="I4" t="n">
+        <v>270292992.6999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>242528553</v>
-      </c>
-      <c r="J4" t="n">
-        <v>270292992.6999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>242528553</v>
       </c>
       <c r="N4" t="n">
-        <v>242528553</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>235220891</v>
       </c>
       <c r="P4" t="n">
-        <v>235220891</v>
+        <v>33325334</v>
       </c>
       <c r="Q4" t="n">
-        <v>33325334</v>
+        <v>176493863</v>
       </c>
       <c r="R4" t="n">
-        <v>176493863</v>
+        <v>801500737</v>
       </c>
       <c r="S4" t="n">
-        <v>801500737</v>
+        <v>1063077923</v>
       </c>
       <c r="T4" t="n">
-        <v>1063077923</v>
+        <v>1032831831</v>
       </c>
       <c r="U4" t="n">
-        <v>1032831831</v>
+        <v>22</v>
       </c>
       <c r="V4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -861,180 +846,174 @@
       <c r="AC4" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4744190</v>
       </c>
       <c r="F5" t="n">
-        <v>4744190</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>157964359</v>
       </c>
       <c r="I5" t="n">
+        <v>180481495</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>157964359</v>
-      </c>
-      <c r="J5" t="n">
-        <v>180481495</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>157964359</v>
       </c>
       <c r="N5" t="n">
-        <v>157964359</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>269965560</v>
       </c>
       <c r="P5" t="n">
-        <v>269965560</v>
+        <v>29784055</v>
       </c>
       <c r="Q5" t="n">
-        <v>29784055</v>
+        <v>188108000</v>
       </c>
       <c r="R5" t="n">
-        <v>188108000</v>
+        <v>850641528</v>
       </c>
       <c r="S5" t="n">
-        <v>850641528</v>
+        <v>1282568518</v>
       </c>
       <c r="T5" t="n">
-        <v>1282568518</v>
+        <v>1254901781</v>
       </c>
       <c r="U5" t="n">
-        <v>1254901781</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="W5" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>2428575498</v>
       </c>
       <c r="AA5" t="n">
-        <v>2428575498</v>
+        <v>36806755951</v>
       </c>
       <c r="AB5" t="n">
-        <v>36806755951</v>
+        <v>5675025323</v>
       </c>
       <c r="AC5" t="n">
-        <v>5675025323</v>
-      </c>
-      <c r="AD5" t="n">
         <v>108073753298</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2769512</v>
       </c>
       <c r="F6" t="n">
-        <v>2769512</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>244073947</v>
       </c>
       <c r="I6" t="n">
+        <v>262380673.5899999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>244073947</v>
-      </c>
-      <c r="J6" t="n">
-        <v>262380673.5899999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>244073947</v>
       </c>
       <c r="N6" t="n">
-        <v>244073947</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>235220891</v>
       </c>
       <c r="P6" t="n">
-        <v>235220891</v>
+        <v>37541836</v>
       </c>
       <c r="Q6" t="n">
-        <v>37541836</v>
+        <v>82986327</v>
       </c>
       <c r="R6" t="n">
-        <v>82986327</v>
+        <v>293962091</v>
       </c>
       <c r="S6" t="n">
-        <v>293962091</v>
+        <v>802068450</v>
       </c>
       <c r="T6" t="n">
-        <v>802068450</v>
+        <v>773035212</v>
       </c>
       <c r="U6" t="n">
-        <v>773035212</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1045,88 +1024,85 @@
       <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4744190</v>
       </c>
       <c r="F7" t="n">
-        <v>4744190</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>190462315</v>
       </c>
       <c r="I7" t="n">
+        <v>213499824</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>190462315</v>
-      </c>
-      <c r="J7" t="n">
-        <v>213499824</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>190462315</v>
       </c>
       <c r="N7" t="n">
-        <v>190462315</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>213944351</v>
       </c>
       <c r="P7" t="n">
-        <v>213944351</v>
+        <v>26535467</v>
       </c>
       <c r="Q7" t="n">
-        <v>26535467</v>
+        <v>208385879</v>
       </c>
       <c r="R7" t="n">
-        <v>208385879</v>
+        <v>994014591</v>
       </c>
       <c r="S7" t="n">
-        <v>994014591</v>
+        <v>844848721</v>
       </c>
       <c r="T7" t="n">
-        <v>844848721</v>
+        <v>827460707</v>
       </c>
       <c r="U7" t="n">
-        <v>827460707</v>
+        <v>20</v>
       </c>
       <c r="V7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="W7" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1137,88 +1113,85 @@
       <c r="AC7" t="n">
         <v>0</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4335767</v>
       </c>
       <c r="F8" t="n">
-        <v>4335767</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240284920</v>
       </c>
       <c r="I8" t="n">
+        <v>267909101</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>240284920</v>
-      </c>
-      <c r="J8" t="n">
-        <v>267909101</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>240284920</v>
       </c>
       <c r="N8" t="n">
-        <v>240284920</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>370196170</v>
       </c>
       <c r="P8" t="n">
-        <v>370196170</v>
+        <v>19658432</v>
       </c>
       <c r="Q8" t="n">
-        <v>19658432</v>
+        <v>221339132</v>
       </c>
       <c r="R8" t="n">
-        <v>221339132</v>
+        <v>846097596</v>
       </c>
       <c r="S8" t="n">
-        <v>846097596</v>
+        <v>1251467996</v>
       </c>
       <c r="T8" t="n">
-        <v>1251467996</v>
+        <v>1210872705</v>
       </c>
       <c r="U8" t="n">
-        <v>1210872705</v>
+        <v>21</v>
       </c>
       <c r="V8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W8" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1229,84 +1202,81 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4335767</v>
       </c>
       <c r="F9" t="n">
-        <v>4335767</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>240284920</v>
       </c>
       <c r="I9" t="n">
+        <v>256385208</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>240284920</v>
-      </c>
-      <c r="J9" t="n">
-        <v>256385208</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>240284920</v>
       </c>
       <c r="N9" t="n">
-        <v>240284920</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138707696</v>
       </c>
       <c r="P9" t="n">
-        <v>138707696</v>
-      </c>
-      <c r="Q9" t="n">
         <v>23382070</v>
       </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>1058682135</v>
+      </c>
       <c r="T9" t="n">
-        <v>1058682135</v>
+        <v>1034850145</v>
       </c>
       <c r="U9" t="n">
-        <v>1034850145</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="W9" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Y9" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1317,88 +1287,85 @@
       <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:29">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4335767</v>
       </c>
       <c r="F10" t="n">
-        <v>4335767</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>240284920</v>
       </c>
       <c r="I10" t="n">
+        <v>260067319</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>240284920</v>
-      </c>
-      <c r="J10" t="n">
-        <v>260067319</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>240284920</v>
       </c>
       <c r="N10" t="n">
-        <v>240284920</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138707696</v>
       </c>
       <c r="P10" t="n">
-        <v>138707696</v>
+        <v>22551188</v>
       </c>
       <c r="Q10" t="n">
-        <v>22551188</v>
+        <v>194780877</v>
       </c>
       <c r="R10" t="n">
-        <v>194780877</v>
+        <v>872847677</v>
       </c>
       <c r="S10" t="n">
-        <v>872847677</v>
+        <v>1625490516</v>
       </c>
       <c r="T10" t="n">
-        <v>1625490516</v>
+        <v>1603086851</v>
       </c>
       <c r="U10" t="n">
-        <v>1603086851</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="W10" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1409,88 +1376,85 @@
       <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:29">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4335767</v>
       </c>
       <c r="F11" t="n">
-        <v>4335767</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240284920</v>
       </c>
       <c r="I11" t="n">
+        <v>264777735</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>240284920</v>
-      </c>
-      <c r="J11" t="n">
-        <v>264777735</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>240284920</v>
       </c>
       <c r="N11" t="n">
-        <v>240284920</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>138707696</v>
       </c>
       <c r="P11" t="n">
-        <v>138707696</v>
+        <v>21070119</v>
       </c>
       <c r="Q11" t="n">
-        <v>21070119</v>
+        <v>182874460</v>
       </c>
       <c r="R11" t="n">
-        <v>182874460</v>
+        <v>946192578</v>
       </c>
       <c r="S11" t="n">
-        <v>946192578</v>
+        <v>1547953029</v>
       </c>
       <c r="T11" t="n">
-        <v>1547953029</v>
+        <v>1522798773</v>
       </c>
       <c r="U11" t="n">
-        <v>1522798773</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W11" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Y11" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1501,86 +1465,83 @@
       <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3846685</v>
       </c>
       <c r="F12" t="n">
-        <v>3846685</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>177002315</v>
       </c>
       <c r="I12" t="n">
+        <v>222260469</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>177002315</v>
-      </c>
-      <c r="J12" t="n">
-        <v>222260469</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>177002315</v>
       </c>
       <c r="N12" t="n">
-        <v>177002315</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>370196170</v>
       </c>
       <c r="P12" t="n">
-        <v>370196170</v>
+        <v>20892864</v>
       </c>
       <c r="Q12" t="n">
-        <v>20892864</v>
-      </c>
-      <c r="R12" t="n">
         <v>92118685</v>
       </c>
-      <c r="S12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>812792061</v>
+      </c>
       <c r="T12" t="n">
-        <v>812792061</v>
+        <v>784831013</v>
       </c>
       <c r="U12" t="n">
-        <v>784831013</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W12" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Y12" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1589,9 +1550,6 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/full_data/euro-ccp.xlsx
+++ b/data/full_data/euro-ccp.xlsx
@@ -630,10 +630,10 @@
         <v>30313530</v>
       </c>
       <c r="Q2" t="n">
-        <v>236487798</v>
+        <v>239794537</v>
       </c>
       <c r="R2" t="n">
-        <v>1043910600</v>
+        <v>1047217339</v>
       </c>
       <c r="S2" t="n">
         <v>1836192948</v>
@@ -719,10 +719,10 @@
         <v>14954318</v>
       </c>
       <c r="Q3" t="n">
-        <v>131800590</v>
+        <v>133556420</v>
       </c>
       <c r="R3" t="n">
-        <v>673856397</v>
+        <v>675612227</v>
       </c>
       <c r="S3" t="n">
         <v>1067298594</v>
@@ -808,10 +808,10 @@
         <v>33325334</v>
       </c>
       <c r="Q4" t="n">
-        <v>176493863</v>
+        <v>178762698</v>
       </c>
       <c r="R4" t="n">
-        <v>801500737</v>
+        <v>803769572</v>
       </c>
       <c r="S4" t="n">
         <v>1063077923</v>
@@ -986,10 +986,10 @@
         <v>37541836</v>
       </c>
       <c r="Q6" t="n">
-        <v>82986327</v>
+        <v>83881525</v>
       </c>
       <c r="R6" t="n">
-        <v>293962091</v>
+        <v>294857289</v>
       </c>
       <c r="S6" t="n">
         <v>802068450</v>
@@ -1516,9 +1516,11 @@
         <v>20892864</v>
       </c>
       <c r="Q12" t="n">
-        <v>92118685</v>
-      </c>
-      <c r="R12" t="s"/>
+        <v>93251388</v>
+      </c>
+      <c r="R12" t="n">
+        <v>373136740</v>
+      </c>
       <c r="S12" t="n">
         <v>812792061</v>
       </c>
